--- a/docs/kcms2016-fiels.ods.xlsx
+++ b/docs/kcms2016-fiels.ods.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -265,31 +265,10 @@
     <t>读写权限，可参考 linux 文件系统权限控制</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模块导航映射表 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>moduleLIsts</t>
-    </r>
-  </si>
-  <si>
-    <t>module_id</t>
+    <t>模块导航映射表 nodeLIsts</t>
+  </si>
+  <si>
+    <t>node_id</t>
   </si>
   <si>
     <r>
@@ -314,13 +293,13 @@
     </r>
   </si>
   <si>
-    <t>module_en_name</t>
+    <t>node_en_name</t>
   </si>
   <si>
     <t>模块英文名称</t>
   </si>
   <si>
-    <t>module_cn_name</t>
+    <t>node_cn_name</t>
   </si>
   <si>
     <t>模块中文名称</t>
@@ -344,95 +323,43 @@
     <t>模块所属域名</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模块映射列表 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>moduleMap</t>
-    </r>
-  </si>
-  <si>
-    <t>module_list_id</t>
+    <t>模块映射列表 nodeMap</t>
+  </si>
+  <si>
+    <t>node_list_id</t>
   </si>
   <si>
     <t>流水序号</t>
   </si>
   <si>
-    <t>module_id 和 module_father_id 联合构成一条记录</t>
-  </si>
-  <si>
-    <t>module_father_id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模块父模块</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>id</t>
-    </r>
+    <t>node_id 和 node_father_id 联合构成一条记录</t>
+  </si>
+  <si>
+    <t>father_lists</t>
+  </si>
+  <si>
+    <t>父节点列表</t>
+  </si>
+  <si>
+    <t>[M1, M2, M3, ... , Mn]</t>
   </si>
   <si>
     <t>handle_authority</t>
   </si>
   <si>
-    <t>模块权限</t>
+    <t>操作权限</t>
   </si>
   <si>
     <t>是否删除映射关系</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>模块结构表 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Module</t>
-    </r>
+    <t>模块结构表 Node</t>
+  </si>
+  <si>
+    <t>node_name</t>
+  </si>
+  <si>
+    <t>模块名称</t>
   </si>
   <si>
     <t>是否删除</t>
@@ -527,7 +454,7 @@
     <t>article_id 和 article_moudle_id 联合构成一条记录</t>
   </si>
   <si>
-    <t>article_module_id</t>
+    <t>article_node_id</t>
   </si>
   <si>
     <r>
@@ -967,19 +894,19 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="28:28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="66.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="20.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4234693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="83.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="25.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1648,7 +1575,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1678,7 +1605,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
@@ -1714,7 +1641,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -1748,7 +1675,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -1782,7 +1709,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1743,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
@@ -1852,7 +1779,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1815,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1849,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2093,10 +2020,10 @@
       <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2122,10 +2049,10 @@
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -2156,10 +2083,10 @@
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -2190,14 +2117,14 @@
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2222,16 +2149,16 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2256,17 +2183,11 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>60</v>
-      </c>
+    <row r="39" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2290,17 +2211,13 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2324,11 +2241,19 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2353,12 +2278,18 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2383,17 +2314,15 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>4</v>
+      <c r="A43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2420,10 +2349,10 @@
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -2454,14 +2383,14 @@
     </row>
     <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2488,10 +2417,10 @@
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -2522,14 +2451,14 @@
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2556,14 +2485,14 @@
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2588,17 +2517,11 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>64</v>
-      </c>
+    <row r="49" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2622,17 +2545,11 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>66</v>
-      </c>
+    <row r="50" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2656,17 +2573,13 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="51" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2691,10 +2604,18 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2719,10 +2640,16 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2747,12 +2674,18 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2777,17 +2710,15 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>4</v>
+      <c r="A55" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2814,14 +2745,14 @@
     </row>
     <row r="56" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2848,16 +2779,14 @@
     </row>
     <row r="57" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2884,14 +2813,14 @@
     </row>
     <row r="58" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2918,10 +2847,10 @@
     </row>
     <row r="59" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
@@ -2951,16 +2880,10 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>78</v>
-      </c>
+      <c r="A60" s="10"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2985,16 +2908,12 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3019,15 +2938,17 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>15</v>
+      <c r="A62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -3053,10 +2974,16 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3081,12 +3008,16 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3111,17 +3042,15 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>4</v>
+      <c r="A65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3148,10 +3077,10 @@
     </row>
     <row r="66" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -3182,14 +3111,14 @@
     </row>
     <row r="67" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3216,14 +3145,16 @@
     </row>
     <row r="68" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3250,14 +3181,14 @@
     </row>
     <row r="69" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3284,10 +3215,10 @@
     </row>
     <row r="70" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -3318,14 +3249,12 @@
     </row>
     <row r="71" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
         <v>15</v>
       </c>
@@ -3354,10 +3283,10 @@
     </row>
     <row r="72" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -3388,10 +3317,10 @@
     </row>
     <row r="73" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
@@ -3422,10 +3351,10 @@
     </row>
     <row r="74" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -3456,10 +3385,10 @@
     </row>
     <row r="75" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
@@ -3488,108 +3417,9 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3597,15 +3427,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3625,14 +3454,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="28:28 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="14.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="20.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9540816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="25.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3657,12 +3486,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="28:28 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="16.1377551020408"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/kcms2016-fiels.ods.xlsx
+++ b/docs/kcms2016-fiels.ods.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -33,29 +33,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>网站</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Source Han Sans CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>host</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>字段表 </t>
+      <t>网站host字段表 </t>
     </r>
     <r>
       <rPr>
@@ -143,29 +121,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>网站菜单字段控件表</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Source Han Sans CN Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>导航</t>
+      <t>网站菜单字段控件表[导航</t>
     </r>
     <r>
       <rPr>
@@ -894,19 +850,19 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4234693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="83.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="25.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="26" min="15" style="0" width="88.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="27.2704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2281,9 +2237,7 @@
       <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
         <v>48</v>
       </c>
@@ -3459,9 +3413,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9540816326531"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="25.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9642857142857"/>
+    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="19.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="27.2704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3490,9 +3444,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="16.1377551020408"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
